--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="175">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ortagrafía </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dependencia </t>
   </si>
   <si>
     <t xml:space="preserve">Aplicaciones </t>
@@ -543,6 +540,112 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-487</t>
+  </si>
+  <si>
+    <t>Al editar un registros ya que cuando se crea se puede realizar sin completar los campos; pero si se desea editar el registro pide llenar toda la información necesaria. ¿es esto correcto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descaraga documento </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-490</t>
+  </si>
+  <si>
+    <t>Se visualiza la palabra descripción sin acento
+Observaciones de la pantalla: se recomienda agregar un botón de búsqueda ya que se complica estar desplazando el cursor del mouse buscando los menús requeridos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancela acceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite dar acceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite salir del apartado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acento en descripción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancela Aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin faltas de ortografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAJA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado de usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita registrro se refleja también en plataforma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registra usuario desde PAUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecuta la acción de usuarios inactivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecuta la acción de usuarios activos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca Usuarios solicitado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado de solicitudess </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado de Solicitudes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acepata solicitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechaza solicitud </t>
+  </si>
+  <si>
+    <t>Acepta solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirige al registro anterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirige al registro siguiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da de alta solicitides desde PAUA Y DISTRIBUCIONES </t>
+  </si>
+  <si>
+    <t>DA de baja solicitudes d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifica la solicitud requerida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar de alta solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar de baja solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifica solicitud </t>
   </si>
 </sst>
 </file>
@@ -914,14 +1017,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,7 +1072,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1832,29 +1935,6 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3830635702556925E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
                   <c:x val="-6.0051606849636403E-2"/>
                   <c:y val="-8.771929824561403E-2"/>
                 </c:manualLayout>
@@ -1870,7 +1950,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1929,16 +2009,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$7</c:f>
+              <c:f>GRAFICOS!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pendiente</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1946,18 +2023,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$7</c:f>
+              <c:f>GRAFICOS!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,21 +2424,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25</c:f>
+              <c:f>GRAFICOS!$A$25:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Tarea por hacer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25</c:f>
+              <c:f>GRAFICOS!$B$25:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2638,6 +2715,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3370,6 +3448,82 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GRAFICOS!$C$47:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarea por hacer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GRAFICOS!$C$49:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1144-4496-8D0E-B754F76AF8B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3511,6 +3665,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5599,7 +5754,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.679590509259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45176.442083912036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N26" sheet="Catálogos"/>
   </cacheSource>
@@ -5626,9 +5781,9 @@
       <sharedItems containsBlank="1" count="5">
         <s v="Error"/>
         <s v="Realizado"/>
-        <s v="Pendiente"/>
-        <m u="1"/>
+        <m/>
         <s v="Ingresar " u="1"/>
+        <s v="Pendiente" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
@@ -5647,16 +5802,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="2">
+        <s v="Tarea por hacer"/>
         <m/>
-        <s v="Tarea por hacer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-08-09T00:00:00" maxDate="2023-08-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-04T00:00:00" maxDate="2023-09-05T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5672,210 +5827,226 @@
   <r>
     <n v="1"/>
     <s v="Ingresar sitio web"/>
-    <m/>
+    <s v="http://10.200.4.165/"/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingresa al sitio web solo que si pasa un tiempo"/>
+    <s v="Falla al cerrar seción "/>
     <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-307"/>
-    <d v="2023-08-09T00:00:00"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-477"/>
+    <d v="2023-09-04T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <m/>
+    <s v="discrec"/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="1"/>
-    <m/>
+    <s v="Ingresa  al  con la credencial"/>
     <s v="Ingresar "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="3"/>
     <s v="Aplicación PAUA"/>
-    <m/>
+    <s v="PAUA"/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="1"/>
-    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresa a la aplicación "/>
     <s v="Ingresar plataforma PAUA"/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="4"/>
     <s v="Principal "/>
     <s v="Catálogos "/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Direcciona "/>
     <x v="1"/>
-    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresa al menú catalogos "/>
     <s v="Ingresar al Menú Catálogos "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="5"/>
     <s v="Catálogos "/>
-    <s v="Secretarías "/>
+    <s v="Tipo Entidad "/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="1"/>
-    <s v="Ingresa al catálogo"/>
+    <s v="Ingresa al menú catalogos "/>
     <s v="Ingresar al catálogo"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Agrega registro / homologar botón y alineción a la tabla "/>
+    <s v="Agrega Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita registros / Mensaje de Alerta "/>
+    <s v="Edita Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Elimina registros "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="1"/>
+    <s v="Busca registros "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filtrado "/>
+    <x v="1"/>
+    <s v="Filtra registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filas por Página "/>
+    <x v="1"/>
+    <s v="Filtra páginas "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortagrafía "/>
+    <x v="0"/>
+    <s v="La palabra descripción lleva acento / Mensaje de alerta al agregar un registro si haber llenado filtros, descripción con acento, punto fuera del parentesis "/>
+    <s v="Buena Ortografía "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro "/>
-    <s v="Agrega Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="Edita registro "/>
-    <s v="Edita Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar "/>
-    <x v="1"/>
-    <s v="Elimina registro "/>
-    <s v="Elimina Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Buscar "/>
-    <x v="1"/>
-    <s v="Busca registro "/>
-    <s v="Buscar registros "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filtrado "/>
-    <x v="1"/>
-    <s v="Filtrado"/>
-    <s v="Filtra registro con los caracteres requerido "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filas por Página "/>
-    <x v="2"/>
-    <s v="Filtra por paginación "/>
-    <s v="Filtra por Pagina "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortagrafía "/>
-    <x v="1"/>
-    <s v="Sin faltas de Ortografía "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-480"/>
+    <d v="2023-09-04T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
     <s v="Catálogos "/>
-    <s v="Tipo Dependencia "/>
+    <s v="Entidades "/>
     <s v="Administrador "/>
-    <s v="irisa"/>
+    <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="1"/>
-    <s v="Ingresa al catálogo"/>
+    <s v="Ingresa al apartado "/>
     <s v="Ingresar al catálogo"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Al editar un registros ya que cuando se crea se puede realizar sin completar los campos; pero si se desea editar el registro pide llenar toda la información necesaria. ¿es esto correcto?"/>
+    <s v="Agrega Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-487"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5883,15 +6054,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro "/>
-    <s v="Agrega Registro "/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <m/>
+    <s v="Edita Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-487"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5899,15 +6070,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Editar"/>
+    <s v="Eliminar "/>
     <x v="1"/>
-    <s v="Edita registro "/>
-    <s v="Edita Registro "/>
+    <s v="Elimina registros "/>
+    <s v="Elimina Registro "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5915,15 +6086,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Eliminar "/>
+    <s v="Buscar "/>
     <x v="1"/>
-    <s v="Elimina registro "/>
-    <s v="Elimina Registro "/>
+    <s v="Busca registros "/>
+    <s v="Buscar registros "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5931,15 +6102,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Buscar "/>
+    <s v="Filtrado "/>
     <x v="1"/>
-    <s v="Busca registro "/>
-    <s v="Buscar registros "/>
+    <s v="Filtra registros "/>
+    <s v="Filtra registro con los caracteres requerido "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5947,15 +6118,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Filtrado "/>
+    <s v="Filas por Página "/>
     <x v="1"/>
-    <s v="filtrado "/>
-    <s v="Filtra registro con los caracteres requerido "/>
+    <s v="Filtra páginas "/>
+    <s v="Filtra por Pagina "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -5963,38 +6134,22 @@
     <m/>
     <m/>
     <m/>
-    <s v="Filas por Página "/>
+    <s v="Ortagrafía "/>
     <x v="2"/>
-    <s v="Filtra por paginación "/>
-    <s v="Filtra por Pagina "/>
+    <m/>
+    <s v="Buena Ortografía "/>
     <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortagrafía "/>
-    <x v="0"/>
-    <s v="La palabra descripción no tiene acento "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6015,8 +6170,8 @@
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6037,9 +6192,12 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -6096,8 +6254,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -6112,8 +6270,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item m="1" x="1"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6123,7 +6281,10 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -6158,8 +6319,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6170,10 +6331,10 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="2"/>
+        <item m="1" x="4"/>
         <item x="1"/>
+        <item h="1" x="2"/>
         <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6188,12 +6349,9 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -6515,10 +6673,10 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40:B44"/>
+      <selection pane="bottomRight" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6539,94 +6697,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6680,13 +6838,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -6695,7 +6853,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -6705,7 +6863,7 @@
         <v>27</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N7" s="1">
         <v>45173</v>
@@ -6719,13 +6877,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -6734,7 +6892,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -6751,13 +6909,13 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -6766,7 +6924,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>52</v>
@@ -6789,7 +6947,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
@@ -6798,7 +6956,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>54</v>
@@ -6815,13 +6973,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -6830,10 +6988,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -6850,10 +7008,10 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -6870,10 +7028,10 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -6890,10 +7048,10 @@
         <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -6910,10 +7068,10 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -6930,10 +7088,10 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -6950,10 +7108,10 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -6970,16 +7128,16 @@
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
         <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" s="1">
         <v>45173</v>
@@ -6993,20 +7151,25 @@
         <v>19</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I19" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -7019,9 +7182,20 @@
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="I20" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>141</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -7034,9 +7208,18 @@
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="45"/>
       <c r="I21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>141</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -7049,9 +7232,14 @@
       <c r="F22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="I22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -7064,9 +7252,14 @@
       <c r="F23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="I23" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -7079,9 +7272,14 @@
       <c r="F24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="I24" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -7094,9 +7292,14 @@
       <c r="F25" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="I25" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -7111,63 +7314,61 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>7</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="26">
+        <v>10</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>116</v>
+      <c r="E27" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="I27" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45174</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
-        <v>10</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>15</v>
-      </c>
       <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>81</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="1">
         <v>45174</v>
       </c>
@@ -7176,7 +7377,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7185,12 +7386,11 @@
         <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M29" s="5"/>
+        <v>81</v>
+      </c>
       <c r="N29" s="1">
         <v>45174</v>
       </c>
@@ -7199,10 +7399,10 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -7221,10 +7421,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -7239,71 +7439,71 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="N32" s="1">
         <v>45174</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>12</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F33" s="23" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="N33" s="1">
         <v>45174</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>12</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -7312,8 +7512,9 @@
         <v>137</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>99</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M34" s="25"/>
       <c r="N34" s="1">
         <v>45174</v>
       </c>
@@ -7325,18 +7526,20 @@
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="23" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="N35" s="1">
         <v>45174</v>
       </c>
@@ -7348,23 +7551,19 @@
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="N36" s="1">
-        <v>45174</v>
-      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
@@ -7373,16 +7572,17 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="I37" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="M37" s="45"/>
+        <v>57</v>
+      </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -7392,87 +7592,111 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="23" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I38" s="23" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+    <row r="39" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>13</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F39" s="23" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I39" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45175</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
-        <v>13</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>116</v>
-      </c>
+    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I40" s="23" t="s">
         <v>107</v>
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I41" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I42" s="23" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -7483,51 +7707,66 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="I43" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="26">
+        <v>14</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F44" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="23" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
       </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
-        <v>14</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>116</v>
-      </c>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="I45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N45" s="1"/>
     </row>
@@ -7538,54 +7777,78 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I46" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="A47" s="26">
+        <v>15</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F47" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="I47" t="s">
-        <v>80</v>
-      </c>
-      <c r="M47" s="5"/>
+        <v>89</v>
+      </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
-        <v>15</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>116</v>
-      </c>
+    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I48" t="s">
-        <v>90</v>
-      </c>
-      <c r="N48" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
@@ -7594,20 +7857,17 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K49" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
@@ -7616,12 +7876,29 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="N50" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="1">
+        <v>45176</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -7630,18 +7907,18 @@
       <c r="F51" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I51" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="N51" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
@@ -7652,54 +7929,94 @@
       <c r="F52" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="N52" s="1"/>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+      <c r="N52" s="1">
+        <v>45176</v>
+      </c>
     </row>
-    <row r="53" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="N53" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>161</v>
+      </c>
+      <c r="N53" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="26">
+        <v>16</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F54" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="N54" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" t="s">
+        <v>162</v>
+      </c>
+      <c r="N54" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="N55" s="1"/>
+      <c r="H55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
@@ -7710,8 +8027,18 @@
       <c r="F56" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="N56" s="1"/>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
@@ -7722,8 +8049,18 @@
       <c r="F57" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="N57" s="1"/>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N57" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
@@ -7734,40 +8071,123 @@
       <c r="F58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="I58" t="s">
         <v>97</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>45176</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="I59" t="s">
-        <v>98</v>
-      </c>
-      <c r="N59" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="N59" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H60" s="2"/>
-      <c r="N60" s="1"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45176</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H61" s="2"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" t="s">
+        <v>174</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45176</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="C48:C54"/>
+  <mergeCells count="48">
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="C47:C53"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -7780,45 +8200,15 @@
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B48:B54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M18" r:id="rId2"/>
-    <hyperlink ref="M33" r:id="rId3"/>
+    <hyperlink ref="M32" r:id="rId3"/>
+    <hyperlink ref="M39" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -7826,37 +8216,37 @@
           <x14:formula1>
             <xm:f>Datos!$D$1:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K49:K84</xm:sqref>
+          <xm:sqref>K48:K83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G60:G85</xm:sqref>
+          <xm:sqref>G62:G84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L49:L84</xm:sqref>
+          <xm:sqref>L48:L83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G59</xm:sqref>
+          <xm:sqref>G7:G61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K48</xm:sqref>
+          <xm:sqref>K7:K47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L48</xm:sqref>
+          <xm:sqref>L7:L47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7866,7 +8256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C50"/>
+  <dimension ref="A3:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
@@ -7874,9 +8264,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
@@ -7898,31 +8289,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18">
-        <v>20</v>
+      <c r="B6" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7934,12 +8317,22 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
@@ -7947,7 +8340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
@@ -7955,22 +8348,35 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="C49" s="19">
+        <v>4</v>
+      </c>
+      <c r="D49" s="19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19">
+        <v>4</v>
+      </c>
+      <c r="D50" s="19">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -463,15 +463,9 @@
     <t>PAUA</t>
   </si>
   <si>
-    <t xml:space="preserve">La palabra descripción lleva acento / Mensaje de alerta al agregar un registro si haber llenado filtros, descripción con acento, punto fuera del parentesis </t>
-  </si>
-  <si>
     <t xml:space="preserve">disrec </t>
   </si>
   <si>
-    <t xml:space="preserve">Falla al cerrar seción </t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-477</t>
   </si>
   <si>
@@ -505,10 +499,6 @@
     <t xml:space="preserve">Filtra páginas </t>
   </si>
   <si>
-    <t>Los mensajes de de confirmación homologar bien la redacción de cada uno 
-Como el color, el uso de los signos de exclamación, si se omite la palabra  exitosamente</t>
-  </si>
-  <si>
     <t xml:space="preserve">El margen de la tabla considero que se tiene que expandir hay espacio para disponer, esto por que cuando se pasara una pantalla mas pequeña se descuadra la información. </t>
   </si>
   <si>
@@ -534,9 +524,6 @@
   </si>
   <si>
     <t xml:space="preserve">Agrega rol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No permite editar rol </t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-485</t>
@@ -646,6 +633,33 @@
   </si>
   <si>
     <t xml:space="preserve">Modifica solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cierra sesión no se visualiza la falla </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-527</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incidencias atendidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita rol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción acento / Mensajes de Redacción </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-531</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homologar Mensajes de conformación hay tres diseños diferentes </t>
   </si>
 </sst>
 </file>
@@ -1021,6 +1035,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,12 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1174,7 +1188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1668,9 +1681,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1734,9 +1745,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1800,9 +1809,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1923,9 +1930,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1946,9 +1951,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2205,7 +2208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2594,7 +2596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2715,7 +2716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3665,7 +3665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6148,7 +6147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6254,7 +6253,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6319,7 +6318,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6670,13 +6669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N61" sqref="N61"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6697,94 +6696,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6844,29 +6843,29 @@
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="13"/>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N7" s="1">
-        <v>45173</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -6883,7 +6882,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -6892,7 +6891,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -6915,7 +6914,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -6924,7 +6923,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>52</v>
@@ -6947,7 +6946,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
@@ -6956,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>54</v>
@@ -6979,7 +6978,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -6988,7 +6987,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>72</v>
@@ -7008,7 +7007,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>73</v>
@@ -7028,12 +7027,20 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45180</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
@@ -7048,7 +7055,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>75</v>
@@ -7068,7 +7075,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>76</v>
@@ -7088,7 +7095,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>77</v>
@@ -7108,14 +7115,14 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>78</v>
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -7125,22 +7132,22 @@
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N18" s="1">
-        <v>45173</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -7157,7 +7164,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>15</v>
@@ -7166,7 +7173,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>72</v>
@@ -7183,21 +7190,23 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>142</v>
+        <v>16</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45180</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
@@ -7211,17 +7220,19 @@
       <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
         <v>27</v>
       </c>
-      <c r="M21" t="s">
-        <v>141</v>
-      </c>
-      <c r="N21" s="1"/>
+      <c r="M21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45180</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
@@ -7236,7 +7247,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>75</v>
@@ -7256,7 +7267,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>76</v>
@@ -7276,7 +7287,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>77</v>
@@ -7296,7 +7307,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>78</v>
@@ -7328,11 +7339,11 @@
       <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>15</v>
@@ -7341,7 +7352,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>80</v>
@@ -7354,7 +7365,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>62</v>
@@ -7363,10 +7374,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="1">
@@ -7377,7 +7388,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="44"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7386,7 +7397,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>81</v>
@@ -7399,7 +7410,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="44"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>65</v>
@@ -7408,7 +7419,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>82</v>
@@ -7421,7 +7432,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="44"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>64</v>
@@ -7430,7 +7441,7 @@
         <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>83</v>
@@ -7439,26 +7450,26 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="44"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>79</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N32" s="1">
         <v>45174</v>
@@ -7478,7 +7489,7 @@
         <v>55</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>15</v>
@@ -7487,7 +7498,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>98</v>
@@ -7509,7 +7520,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>69</v>
@@ -7529,19 +7540,22 @@
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>102</v>
       </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
       <c r="M35" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N35" s="1">
-        <v>45174</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -7557,7 +7571,7 @@
         <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>103</v>
@@ -7578,125 +7592,136 @@
         <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="23" t="s">
+      <c r="H39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N39" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+    <row r="40" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
         <v>13</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D40" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="23" t="s">
+      <c r="E40" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="23" t="s">
+      <c r="H40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N39" s="1">
-        <v>45175</v>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45180</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="23" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -7707,66 +7732,74 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
-        <v>14</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>115</v>
-      </c>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N44" s="1">
+        <v>45180</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="26">
+        <v>14</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="F45" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N45" s="1"/>
     </row>
@@ -7777,94 +7810,102 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="5"/>
+        <v>81</v>
+      </c>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
+    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="1">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
         <v>15</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B48" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C48" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D48" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="23" t="s">
+      <c r="E48" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" t="s">
-        <v>89</v>
-      </c>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="23" t="s">
-        <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="1">
-        <v>45176</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="1">
         <v>45176</v>
       </c>
@@ -7876,46 +7917,43 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" t="s">
-        <v>90</v>
-      </c>
-      <c r="K50" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="5"/>
+        <v>153</v>
+      </c>
       <c r="N50" s="1">
         <v>45176</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="1">
         <v>45176</v>
       </c>
@@ -7927,13 +7965,13 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -7942,77 +7980,77 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="23" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="N53" s="1">
         <v>45176</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="26">
-        <v>16</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>115</v>
-      </c>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="23" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N54" s="1">
         <v>45176</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="26">
+        <v>16</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="F55" s="23" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I55" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N55" s="1">
         <v>45176</v>
@@ -8025,16 +8063,16 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N56" s="1">
         <v>45176</v>
@@ -8047,16 +8085,16 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="N57" s="1">
         <v>45176</v>
@@ -8069,60 +8107,60 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N58" s="1">
         <v>45176</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="23" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I59" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="N59" s="1">
         <v>45176</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N60" s="1">
         <v>45176</v>
@@ -8135,59 +8173,49 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N61" s="1">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+      <c r="N62" s="1">
         <v>45176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="C48:C54"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -8200,15 +8228,53 @@
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="E40:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M18" r:id="rId2"/>
     <hyperlink ref="M32" r:id="rId3"/>
-    <hyperlink ref="M39" r:id="rId4"/>
+    <hyperlink ref="M40" r:id="rId4"/>
+    <hyperlink ref="M13" r:id="rId5"/>
+    <hyperlink ref="M20" r:id="rId6"/>
+    <hyperlink ref="M21" r:id="rId7"/>
+    <hyperlink ref="M38" r:id="rId8"/>
+    <hyperlink ref="M44" r:id="rId9"/>
+    <hyperlink ref="M47" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -8216,37 +8282,37 @@
           <x14:formula1>
             <xm:f>Datos!$D$1:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K48:K83</xm:sqref>
+          <xm:sqref>K49:K84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G62:G84</xm:sqref>
+          <xm:sqref>G63:G85</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L48:L83</xm:sqref>
+          <xm:sqref>L49:L84</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G61</xm:sqref>
+          <xm:sqref>G7:G62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K47</xm:sqref>
+          <xm:sqref>K7:K48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L47</xm:sqref>
+          <xm:sqref>L7:L48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="180">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-487</t>
-  </si>
-  <si>
-    <t>Al editar un registros ya que cuando se crea se puede realizar sin completar los campos; pero si se desea editar el registro pide llenar toda la información necesaria. ¿es esto correcto?</t>
   </si>
   <si>
     <t xml:space="preserve">Descaraga documento </t>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t xml:space="preserve">Homologar Mensajes de conformación hay tres diseños diferentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita registro </t>
   </si>
 </sst>
 </file>
@@ -1035,12 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1085,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6672,10 +6672,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6696,94 +6696,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6852,7 +6852,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -7033,13 +7033,13 @@
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N13" s="1">
-        <v>45180</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>79</v>
@@ -7192,8 +7192,8 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>138</v>
+      <c r="H20" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>73</v>
@@ -7218,17 +7218,17 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="H21" s="45"/>
       <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N21" s="1">
         <v>45180</v>
@@ -7339,7 +7339,7 @@
       <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7365,7 +7365,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>62</v>
@@ -7388,7 +7388,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7410,7 +7410,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>65</v>
@@ -7432,7 +7432,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>64</v>
@@ -7454,7 +7454,7 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>60</v>
@@ -7463,10 +7463,13 @@
         <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>132</v>
@@ -7543,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>102</v>
@@ -7612,7 +7615,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>79</v>
@@ -7621,7 +7624,7 @@
         <v>27</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N38" s="1">
         <v>45180</v>
@@ -7640,7 +7643,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>99</v>
@@ -7670,7 +7673,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>106</v>
@@ -7679,7 +7682,7 @@
         <v>28</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N40" s="1">
         <v>45180</v>
@@ -7698,7 +7701,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>107</v>
@@ -7718,7 +7721,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I42" s="23" t="s">
         <v>109</v>
@@ -7738,7 +7741,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I43" s="23" t="s">
         <v>83</v>
@@ -7758,7 +7761,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I44" s="23" t="s">
         <v>79</v>
@@ -7767,7 +7770,7 @@
         <v>27</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N44" s="1">
         <v>45180</v>
@@ -7816,7 +7819,7 @@
         <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
         <v>81</v>
@@ -7833,19 +7836,19 @@
         <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N47" s="1">
         <v>45180</v>
@@ -7874,7 +7877,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
         <v>89</v>
@@ -7894,7 +7897,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
         <v>74</v>
@@ -7923,7 +7926,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N50" s="1">
         <v>45176</v>
@@ -7942,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
         <v>90</v>
@@ -7971,7 +7974,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -7993,7 +7996,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
         <v>82</v>
@@ -8018,7 +8021,7 @@
         <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N54" s="1">
         <v>45176</v>
@@ -8047,10 +8050,10 @@
         <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N55" s="1">
         <v>45176</v>
@@ -8069,10 +8072,10 @@
         <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N56" s="1">
         <v>45176</v>
@@ -8091,10 +8094,10 @@
         <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N57" s="1">
         <v>45176</v>
@@ -8113,7 +8116,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
         <v>96</v>
@@ -8135,7 +8138,7 @@
         <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
         <v>97</v>
@@ -8151,16 +8154,16 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N60" s="1">
         <v>45176</v>
@@ -8173,16 +8176,16 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N61" s="1">
         <v>45176</v>
@@ -8195,16 +8198,16 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N62" s="1">
         <v>45176</v>
@@ -8212,6 +8215,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E48:E54"/>
     <mergeCell ref="D48:D54"/>
@@ -8228,38 +8263,6 @@
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="E40:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -653,13 +653,13 @@
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-531</t>
   </si>
   <si>
-    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375</t>
-  </si>
-  <si>
     <t xml:space="preserve">Homologar Mensajes de conformación hay tres diseños diferentes </t>
   </si>
   <si>
     <t xml:space="preserve">Edita registro </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375 / https://paua-sfytgenl.atlassian.net/browse/KPAUA-538</t>
   </si>
 </sst>
 </file>
@@ -6672,10 +6672,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7033,7 +7033,7 @@
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>171</v>
@@ -7193,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>73</v>
@@ -7839,7 +7839,7 @@
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
@@ -7848,7 +7848,7 @@
         <v>28</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N47" s="1">
         <v>45180</v>
@@ -7906,7 +7906,7 @@
         <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="1">
@@ -7954,7 +7954,7 @@
         <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="1">
@@ -8274,7 +8274,7 @@
     <hyperlink ref="M21" r:id="rId7"/>
     <hyperlink ref="M38" r:id="rId8"/>
     <hyperlink ref="M44" r:id="rId9"/>
-    <hyperlink ref="M47" r:id="rId10"/>
+    <hyperlink ref="M47" r:id="rId10" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-375"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375 / https://paua-sfytgenl.atlassian.net/browse/KPAUA-538</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-555</t>
   </si>
 </sst>
 </file>
@@ -1035,6 +1038,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,12 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6147,113 +6150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="11"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6317,8 +6214,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6413,6 +6310,112 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="11"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6672,10 +6675,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6696,94 +6699,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6897,7 +6900,12 @@
         <v>15</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="M8" s="14"/>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -7192,7 +7200,7 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="27" t="s">
         <v>178</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -7220,7 +7228,7 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
@@ -7339,7 +7347,7 @@
       <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7365,7 +7373,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>62</v>
@@ -7388,7 +7396,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="44"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7410,7 +7418,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="44"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>65</v>
@@ -7432,7 +7440,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="44"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>64</v>
@@ -7454,7 +7462,7 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="44"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>60</v>
@@ -8215,6 +8223,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="D33:D39"/>
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="E33:E39"/>
     <mergeCell ref="B48:B54"/>
@@ -8231,38 +8271,6 @@
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8275,9 +8283,10 @@
     <hyperlink ref="M38" r:id="rId8"/>
     <hyperlink ref="M44" r:id="rId9"/>
     <hyperlink ref="M47" r:id="rId10" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-375"/>
+    <hyperlink ref="M8" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario - 1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
-    <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
+    <sheet name="PAUA" sheetId="8" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -20,11 +20,12 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$G$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAUA!$G$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="41" r:id="rId5"/>
+    <pivotCache cacheId="50" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -663,6 +664,12 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Videos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Guías </t>
   </si>
 </sst>
 </file>
@@ -1038,12 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,6 +1096,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1144,27 +1151,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1176,21 +1169,14 @@
               <a:t>AVANCE DE PRUEBA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-MX" sz="1800" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" sz="1800">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Configuración-&gt; Plataforma Plataforma de Acceso Único y Aplicaciones </a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t> Configuración-&gt; Plataforma Plataforma de Acceso Único y Aplicaciones </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,27 +1189,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1410,34 +1382,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="25000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:showLegendKey val="0"/>
@@ -1461,34 +1405,6 @@
               <c:y val="-3.15241228070176E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -1517,34 +1433,6 @@
               <c:y val="6.4418859649122806E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -1565,6 +1453,177 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-9.3830635702556925E-2"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-6.0051606849636403E-2"/>
+              <c:y val="-8.771929824561403E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.9756040347173346E-2"/>
+              <c:y val="-2.4671052631578948E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.7262491203377909E-2"/>
+              <c:y val="-4.6600877192982483E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.11541168191414504"/>
+              <c:y val="-6.578947368421055E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.10790523105794049"/>
+              <c:y val="2.4671052631578847E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1573,26 +1632,45 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
               <a:prstClr val="black">
-                <a:alpha val="25000"/>
+                <a:alpha val="20000"/>
               </a:prstClr>
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1601,7 +1679,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -1620,23 +1698,25 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="14"/>
+        <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
               <a:prstClr val="black">
-                <a:alpha val="25000"/>
+                <a:alpha val="20000"/>
               </a:prstClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1645,18 +1725,35 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-9.3830635702556925E-2"/>
-              <c:y val="0"/>
+              <c:x val="0.10415200562983815"/>
+              <c:y val="-6.8530701754385984E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1665,7 +1762,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -1684,12 +1781,14 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="15"/>
+        <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1698,9 +1797,9 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
               <a:prstClr val="black">
-                <a:alpha val="25000"/>
+                <a:alpha val="20000"/>
               </a:prstClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1709,18 +1808,35 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-6.0051606849636403E-2"/>
-              <c:y val="-8.771929824561403E-2"/>
+              <c:x val="-9.2892329345531391E-2"/>
+              <c:y val="-0.1069078947368421"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1729,7 +1845,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -1748,23 +1864,25 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="16"/>
+        <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
               <a:prstClr val="black">
-                <a:alpha val="25000"/>
+                <a:alpha val="20000"/>
               </a:prstClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1773,18 +1891,35 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="7.9756040347173346E-2"/>
-              <c:y val="-2.4671052631578948E-2"/>
+              <c:x val="-0.12197982641332401"/>
+              <c:y val="-5.4824561403509775E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1793,7 +1928,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -1812,7 +1947,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1856,9 +1993,9 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -1880,9 +2017,9 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -1904,9 +2041,9 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -1922,8 +2059,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.9756040347173346E-2"/>
-                  <c:y val="-2.4671052631578948E-2"/>
+                  <c:x val="-9.2892329345531391E-2"/>
+                  <c:y val="-0.1069078947368421"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1933,7 +2070,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1943,8 +2082,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0051606849636403E-2"/>
-                  <c:y val="-8.771929824561403E-2"/>
+                  <c:x val="0.10415200562983815"/>
+                  <c:y val="-6.8530701754385984E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1954,20 +2093,62 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12197982641332401"/>
+                  <c:y val="-5.4824561403509775E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1976,7 +2157,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1997,31 +2178,35 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$6</c:f>
+              <c:f>GRAFICOS!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -2029,15 +2214,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$6</c:f>
+              <c:f>GRAFICOS!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2246,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="70"/>
+        <c:holeSize val="50"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
@@ -2074,17 +2262,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7868268729020147"/>
-          <c:y val="0.46331136033982595"/>
-          <c:w val="5.6784453667429499E-2"/>
-          <c:h val="0.13661741089929549"/>
+          <c:x val="0.72083693971751073"/>
+          <c:y val="0.38929820244508911"/>
+          <c:w val="7.742719352199201E-2"/>
+          <c:h val="0.2161130249343832"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -2100,8 +2289,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2118,21 +2307,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2211,6 +2409,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2369,8 +2568,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7032476706302647E-2"/>
-          <c:y val="0.1315509693558474"/>
+          <c:x val="8.3305054848439516E-2"/>
+          <c:y val="0.12842401500938086"/>
           <c:w val="0.90138830770502421"/>
           <c:h val="0.79638332028383885"/>
         </c:manualLayout>
@@ -2433,7 +2632,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2445,7 +2644,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,6 +2798,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2719,6 +2919,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3361,6 +3562,44 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3460,7 +3699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3516,7 +3755,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,6 +3907,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3866,18 +4106,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3885,11 +4125,22 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -3899,21 +4150,30 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="dkDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3928,34 +4188,62 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -3974,9 +4262,9 @@
         <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:effectLst>
-        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="25000"/>
+            <a:alpha val="20000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -3996,17 +4284,12 @@
         <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
             <a:alpha val="20000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -4019,9 +4302,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4038,13 +4323,10 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -4072,20 +4354,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4100,18 +4380,17 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4123,14 +4402,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4142,7 +4421,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
@@ -4160,12 +4439,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4176,12 +4449,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4194,14 +4479,25 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4213,14 +4509,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4232,14 +4528,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4249,20 +4544,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1">
-          <a:alpha val="78000"/>
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4270,7 +4566,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4284,10 +4580,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4298,11 +4605,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4315,8 +4622,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
@@ -4335,7 +4642,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4345,8 +4651,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4362,14 +4668,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4379,10 +4684,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5667,13 +5977,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5756,9 +6066,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45176.442083912036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45196.63523634259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N26" sheet="Catálogos"/>
+    <worksheetSource ref="A6:N26" sheet="PAUA"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -5781,8 +6091,8 @@
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
+        <s v="Realizado"/>
         <s v="Error"/>
-        <s v="Realizado"/>
         <m/>
         <s v="Ingresar " u="1"/>
         <s v="Pendiente" u="1"/>
@@ -5804,16 +6114,40 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="Tarea por hacer"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="Finalizada "/>
         <m/>
+        <s v="Tarea por hacer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-04T00:00:00" maxDate="2023-09-05T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-11T00:00:00" maxDate="2023-09-15T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45196.643689699071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="58">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G6:G64" sheet="PAUA"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Realizado"/>
+        <s v="Error"/>
+        <m/>
+        <s v="Pendiente"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5834,13 +6168,13 @@
     <s v="disrec "/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Falla al cerrar seción "/>
+    <s v="cierra sesión no se visualiza la falla "/>
     <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-477"/>
-    <d v="2023-09-04T00:00:00"/>
+    <d v="2023-09-11T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
@@ -5849,13 +6183,13 @@
     <s v="Administrador "/>
     <s v="disrec "/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Ingresa  al  con la credencial"/>
     <s v="Ingresar "/>
     <m/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
+    <x v="0"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-555"/>
     <m/>
   </r>
   <r>
@@ -5865,7 +6199,7 @@
     <s v="Administrador "/>
     <s v="disrec "/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Ingresa a la aplicación "/>
     <s v="Ingresar plataforma PAUA"/>
     <m/>
@@ -5881,7 +6215,7 @@
     <s v="Administrador "/>
     <s v="disrec "/>
     <s v="Direcciona "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Ingresa al menú catalogos "/>
     <s v="Ingresar al Menú Catálogos "/>
     <m/>
@@ -5897,7 +6231,7 @@
     <s v="Administrador "/>
     <s v="disrec "/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Ingresa al menú catalogos "/>
     <s v="Ingresar al catálogo"/>
     <m/>
@@ -5913,7 +6247,7 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Agrega registro / homologar botón y alineción a la tabla "/>
     <s v="Agrega Registro "/>
     <m/>
@@ -5929,14 +6263,14 @@
     <m/>
     <m/>
     <s v="Editar"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Edita registros / Mensaje de Alerta "/>
     <s v="Edita Registro "/>
     <m/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-527"/>
+    <d v="2023-09-14T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5945,7 +6279,7 @@
     <m/>
     <m/>
     <s v="Eliminar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Elimina registros "/>
     <s v="Elimina Registro "/>
     <m/>
@@ -5961,7 +6295,7 @@
     <m/>
     <m/>
     <s v="Buscar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Busca registros "/>
     <s v="Buscar registros "/>
     <m/>
@@ -5977,7 +6311,7 @@
     <m/>
     <m/>
     <s v="Filtrado "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Filtra registros "/>
     <s v="Filtra registro con los caracteres requerido "/>
     <m/>
@@ -5993,7 +6327,7 @@
     <m/>
     <m/>
     <s v="Filas por Página "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Filtra páginas "/>
     <s v="Filtra por Pagina "/>
     <m/>
@@ -6010,13 +6344,13 @@
     <m/>
     <s v="Ortagrafía "/>
     <x v="0"/>
-    <s v="La palabra descripción lleva acento / Mensaje de alerta al agregar un registro si haber llenado filtros, descripción con acento, punto fuera del parentesis "/>
+    <s v="Sin faltas de ortografía "/>
     <s v="Buena Ortografía "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-480"/>
-    <d v="2023-09-04T00:00:00"/>
+    <d v="2023-09-11T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
@@ -6025,7 +6359,7 @@
     <s v="Administrador "/>
     <s v="disrec "/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Ingresa al apartado "/>
     <s v="Ingresar al catálogo"/>
     <m/>
@@ -6042,13 +6376,13 @@
     <m/>
     <s v="Agregar"/>
     <x v="0"/>
-    <s v="Al editar un registros ya que cuando se crea se puede realizar sin completar los campos; pero si se desea editar el registro pide llenar toda la información necesaria. ¿es esto correcto?"/>
+    <s v="Edita registro "/>
     <s v="Agrega Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-487"/>
-    <m/>
+    <d v="2023-09-11T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6063,8 +6397,8 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-487"/>
-    <m/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-529"/>
+    <d v="2023-09-11T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6073,7 +6407,7 @@
     <m/>
     <m/>
     <s v="Eliminar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Elimina registros "/>
     <s v="Elimina Registro "/>
     <m/>
@@ -6089,7 +6423,7 @@
     <m/>
     <m/>
     <s v="Buscar "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Busca registros "/>
     <s v="Buscar registros "/>
     <m/>
@@ -6105,7 +6439,7 @@
     <m/>
     <m/>
     <s v="Filtrado "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Filtra registros "/>
     <s v="Filtra registro con los caracteres requerido "/>
     <m/>
@@ -6121,7 +6455,7 @@
     <m/>
     <m/>
     <s v="Filas por Página "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Filtra páginas "/>
     <s v="Filtra por Pagina "/>
     <m/>
@@ -6145,12 +6479,191 @@
     <x v="1"/>
     <m/>
     <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="58">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6165,8 +6678,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item h="1" x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -6179,7 +6693,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6191,8 +6705,17 @@
   <dataFields count="1">
     <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6215,39 +6738,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
         <item x="0"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
         <item h="1" x="2"/>
-        <item h="1" m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -6260,10 +6772,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de Estatus de Prueba" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
-    <chartFormat chart="0" format="13" series="1">
+    <chartFormat chart="0" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6272,38 +6784,38 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="0" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="0" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="16">
+    <chartFormat chart="0" format="25">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -6322,7 +6834,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6343,8 +6855,9 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -6371,7 +6884,7 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6380,7 +6893,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6410,6 +6923,18 @@
           </reference>
           <reference field="11" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -6672,13 +7197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6699,94 +7224,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7200,7 +7725,7 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="45" t="s">
         <v>178</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -7228,7 +7753,7 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
@@ -7347,7 +7872,7 @@
       <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -7357,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>126</v>
@@ -7373,7 +7898,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>62</v>
@@ -7396,7 +7921,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>63</v>
@@ -7418,7 +7943,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>65</v>
@@ -7440,7 +7965,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>64</v>
@@ -7462,7 +7987,7 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>60</v>
@@ -7620,7 +8145,7 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>175</v>
@@ -7629,7 +8154,7 @@
         <v>79</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>176</v>
@@ -7678,7 +8203,7 @@
         <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>140</v>
@@ -7766,7 +8291,7 @@
         <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>144</v>
@@ -7775,7 +8300,7 @@
         <v>79</v>
       </c>
       <c r="L44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>176</v>
@@ -8221,8 +8746,56 @@
         <v>45176</v>
       </c>
     </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F63" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F64" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E48:E54"/>
     <mergeCell ref="D48:D54"/>
@@ -8239,38 +8812,6 @@
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="E40:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8300,7 +8841,7 @@
           <x14:formula1>
             <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G63:G85</xm:sqref>
+          <xm:sqref>G65:G85</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8312,7 +8853,7 @@
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G62</xm:sqref>
+          <xm:sqref>G7:G64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8336,15 +8877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -8367,23 +8908,31 @@
         <v>24</v>
       </c>
       <c r="B4" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18">
-        <v>19</v>
+      <c r="B7" s="18">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,10 +8945,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8407,7 +8956,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -8426,7 +8975,7 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -8438,10 +8987,10 @@
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -8450,10 +8999,10 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
